--- a/TaiChinhGiaDinh.xlsx
+++ b/TaiChinhGiaDinh.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TuBeo5866\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{975CAEC2-DDA8-4A83-B86B-F9E911EA83B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A4E0A-74F8-47F8-9F08-95E9234F3822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11190" activeTab="2" xr2:uid="{7F960065-4013-43CF-8739-47F0A6A54CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="842" xr2:uid="{7F960065-4013-43CF-8739-47F0A6A54CFF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chi" sheetId="1" r:id="rId1"/>
-    <sheet name="Thu" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Licenses - Bản quyền" sheetId="4" r:id="rId1"/>
+    <sheet name="Chi" sheetId="1" r:id="rId2"/>
+    <sheet name="Thu" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
   <si>
     <t>Chi tiêu</t>
   </si>
@@ -181,61 +181,286 @@
     <t>Jack tặng</t>
   </si>
   <si>
-    <t>Khảo sát chọn thường THPT</t>
-  </si>
-  <si>
-    <t>Mã số học sinh</t>
-  </si>
-  <si>
-    <t>Tên trường</t>
-  </si>
-  <si>
-    <t>HS01</t>
-  </si>
-  <si>
-    <t>HS02</t>
-  </si>
-  <si>
-    <t>HS03</t>
-  </si>
-  <si>
-    <t>HS05</t>
-  </si>
-  <si>
-    <t>HS04</t>
-  </si>
-  <si>
-    <t>HS06</t>
-  </si>
-  <si>
-    <t>HS08</t>
-  </si>
-  <si>
-    <t>HS07</t>
-  </si>
-  <si>
-    <t>HS09</t>
-  </si>
-  <si>
-    <t>HS10</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Thống kê</t>
-  </si>
-  <si>
-    <t>Số lượng</t>
+    <t>Copyright © TuBeo5866. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Bản quyền © thuộc TuBeo5866. Đã đăng ký Bản quyền.</t>
+  </si>
+  <si>
+    <t>Social Links</t>
+  </si>
+  <si>
+    <t>Các mạng xã hội</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>TuBeo5866</t>
+  </si>
+  <si>
+    <t>https://discordapp.com/users/698715849434988608</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>https://youtube.com/TuBeo5866</t>
+  </si>
+  <si>
+    <t>TikTok</t>
+  </si>
+  <si>
+    <t>@tubeo5866</t>
+  </si>
+  <si>
+    <t>https://tiktok.com/@tubeo5866</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Tên tài khoản</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>https://x.com/tubeo5866</t>
+  </si>
+  <si>
+    <t>X / Twitter</t>
+  </si>
+  <si>
+    <t>Bluesky</t>
+  </si>
+  <si>
+    <t>tubeo5866.bsky.app</t>
+  </si>
+  <si>
+    <t>https://bsky.app/profile/tubeo5866.bsky.app</t>
+  </si>
+  <si>
+    <t>Facebook (chính)</t>
+  </si>
+  <si>
+    <t>tubeo5866</t>
+  </si>
+  <si>
+    <t>https://facebook.com/TuBeo5866</t>
+  </si>
+  <si>
+    <t>Facebook (phụ)</t>
+  </si>
+  <si>
+    <t>tubeo58666</t>
+  </si>
+  <si>
+    <t>https://facebook.com/TuBeo58666</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>https://github.com/TuBeo5866</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Infinite-Science96</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/user/Infinite-Science96</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tubeo5866/</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>phungdangtuantu</t>
+  </si>
+  <si>
+    <t>https://steamcommunity.com/id/tubeo5866/</t>
+  </si>
+  <si>
+    <t>https://soundcloud.com/tubeo5866</t>
+  </si>
+  <si>
+    <t>SoundCloud</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/user/316petzrdvrteasaneyw4hq2g3se?si=8fb0f01567504082</t>
+  </si>
+  <si>
+    <t>https://tubeo5866.free.nf</t>
+  </si>
+  <si>
+    <t>GameJolt</t>
+  </si>
+  <si>
+    <t>https://gamejolt.com/invite/tubeo5866</t>
+  </si>
+  <si>
+    <t>Short Info / Bio ngắn</t>
+  </si>
+  <si>
+    <t>https://linktr.ee/tubeo5866</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>VI-VN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Theo đây, quyền được cấp miễn phí cho bất kỳ người nào có được bản sao của Phần mềm này và các tệp tài liệu liên quan ("Phần mềm"), được giao dịch Phần mềm mà không bị hạn chế, bao gồm nhưng không giới hạn các quyền sử dụng, sao chép, sửa đổi, hợp nhất, xuất bản, phân phối, cấp phép lại và/hoặc bán các bản sao của Phần mềm và cho phép những người được cung cấp Phần mềm làm như vậy,  tuân theo các điều kiện sau:
+Thông báo bản quyền ở trên và thông báo cho phép này sẽ được bao gồm trong tất cả các bản sao hoặc phần quan trọng của Phần mềm.
+PHẦN MỀM ĐƯỢC CUNG CẤP "NGUYÊN TRẠNG", KHÔNG CÓ BẢO ĐẢM DƯỚI BẤT KỲ HÌNH THỨC NÀO, RÕ RÀNG HAY NGỤ Ý, BAO GỒM NHƯNG KHÔNG GIỚI HẠN Ở CÁC BẢO ĐẢM VỀ KHẢ NĂNG BÁN ĐƯỢC, TÍNH PHÙ HỢP CHO MỘT MỤC ĐÍCH CỤ THỂ VÀ KHÔNG VI PHẠM. TRONG MỌI TRƯỜNG HỢP, TÁC GIẢ HOẶC CHỦ SỞ HỮU BẢN QUYỀN SẼ KHÔNG CHỊU TRÁCH NHIỆM PHÁP LÝ ĐỐI VỚI BẤT KỲ KHIẾU NẠI, THIỆT HẠI HOẶC TRÁCH NHIỆM PHÁP LÝ NÀO KHÁC, CHO DÙ TRONG HÀNH ĐỘNG HỢP ĐỒNG, SAI LẦM CÁ NHÂN HAY CÁCH KHÁC, PHÁT SINH TỪ, NGOÀI HOẶC LIÊN QUAN ĐẾN PHẦN MỀM HOẶC VIỆC SỬ DỤNG HOẶC CÁC GIAO DỊCH KHÁC TRONG PHẦN MỀM.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>EN-US</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+Permission is hereby granted, free of charge, to any person obtaining a copy of this software and associated documentation files (the “Software”), to deal in the Software without restriction, including without limitation the rights to use, copy, modify, merge, publish, distribute, sublicense, and/or sell copies of the Software, and to permit persons to whom the Software is furnished to do so, subject to the following conditions:
+The above copyright notice and this permission notice shall be included in all copies or substantial portions of the Software.
+THE SOFTWARE IS PROVIDED “AS IS”, WITHOUT WARRANTY OF ANY KIND, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO THE WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE AND NONINFRINGEMENT. IN NO EVENT SHALL THE AUTHORS OR COPYRIGHT HOLDERS BE LIABLE FOR ANY CLAIM, DAMAGES OR OTHER LIABILITY, WHETHER IN AN ACTION OF CONTRACT, TORT OR OTHERWISE, ARISING FROM, OUT OF OR IN CONNECTION WITH THE SOFTWARE OR THE USE OR OTHER DEALINGS IN THE SOFTWARE.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tổng tiền
+(nghìn đồng)</t>
+  </si>
+  <si>
+    <t>Website (for games and projects / cho các trò chơi và dự án)</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Games / Apps</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t>Nhà phát triển</t>
+  </si>
+  <si>
+    <t>Trò chơi &amp; Phần mềm</t>
+  </si>
+  <si>
+    <t>3 năm</t>
+  </si>
+  <si>
+    <t>Python, JavaScript, 
+HTML, CSS, C++,...</t>
+  </si>
+  <si>
+    <t>Python: 80%
+C++: 62%</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>Nhà thiết kế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI, CLI,... </t>
+  </si>
+  <si>
+    <t>2.5 years</t>
+  </si>
+  <si>
+    <t>2.5 năm</t>
+  </si>
+  <si>
+    <t>PowerPoint, Website,…</t>
+  </si>
+  <si>
+    <t>Supporter</t>
+  </si>
+  <si>
+    <t>Hỗ trợ viên</t>
+  </si>
+  <si>
+    <t>Many developers, coders, or boring user,…</t>
+  </si>
+  <si>
+    <t>Những nhà phát triển, lập trình viên, những người buồn chán,…</t>
+  </si>
+  <si>
+    <t>Owner &amp; Staff</t>
+  </si>
+  <si>
+    <t>Quản lý &amp; Nhân viên</t>
+  </si>
+  <si>
+    <t>[ADMIN] Láo Nháo - Game Solutions
+[STAFF] Hydro Group</t>
+  </si>
+  <si>
+    <t>Working as a</t>
+  </si>
+  <si>
+    <t>Đang làm việc như một</t>
+  </si>
+  <si>
+    <t>Giao diện: bình thường, cửa sổ lệnh,…</t>
+  </si>
+  <si>
+    <t>Using my projects / games without credit me</t>
+  </si>
+  <si>
+    <t>Sử dụng dự án / trò chơi mà không trích dẫn tôi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will be settled with laws and copyrights.</t>
+  </si>
+  <si>
+    <t>sẽ bị xử lý theo pháp luật / bản quyền.</t>
+  </si>
+  <si>
+    <t>MY INFO</t>
   </si>
 </sst>
 </file>
@@ -243,9 +468,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,34 +518,76 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -340,8 +607,121 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -369,15 +749,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,12 +959,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -400,12 +971,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,26 +989,251 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
-    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - Accent2" xfId="5" builtinId="34"/>
+    <cellStyle name="20% - Accent4" xfId="1" builtinId="42"/>
+    <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
+    <cellStyle name="60% - Accent2" xfId="3" builtinId="36"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -769,11 +1565,1026 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E1955-C440-4E5A-AB0B-7B0D68919C1B}">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFEE0000"/>
+  </sheetPr>
+  <dimension ref="A1:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="14" width="26.42578125" customWidth="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" customHeight="1">
+      <c r="A1" s="75"/>
+      <c r="B1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="105" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="75"/>
+      <c r="B2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="73"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="73"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="73"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" customHeight="1">
+      <c r="A5" s="75"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="73"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="75"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="73"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="75"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="73"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="75"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="73"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="75"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="73"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="75"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="75"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="73"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="75"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="N12" s="44"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="73"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="75"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="75"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="73"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="75"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="73"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="75"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="73"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="75"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="75"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="73"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="75"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A20" s="75"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="73"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="75"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="102"/>
+      <c r="P21" s="73"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A22" s="75"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="L22" s="92"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="O22" s="100"/>
+      <c r="P22" s="73"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A23" s="75"/>
+      <c r="B23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="73"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1">
+      <c r="A24" s="75"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="95"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="O24" s="65"/>
+      <c r="P24" s="73"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A25" s="75"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="92"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="O25" s="100"/>
+      <c r="P25" s="73"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="75"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="73"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="75"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="73"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="75"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="73"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="75"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="73"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="75"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="73"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="75"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="P31" s="73"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="75"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N32" s="81"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="73"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="75"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="73"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="75"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="L34" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="87"/>
+      <c r="N34" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="O34" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="P34" s="73"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="75"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="M35" s="87"/>
+      <c r="N35" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="O35" s="90"/>
+      <c r="P35" s="73"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="75"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="73"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="75"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="73"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="75"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="L38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="73"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="75"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="73"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="75"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="L40" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="73"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="75"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="73"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="75"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L40:O41"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B4:I21"/>
+    <mergeCell ref="B23:I41"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="M6" r:id="rId1" xr:uid="{45D1B3AD-5B21-4686-9398-2A8231314A1C}"/>
+    <hyperlink ref="M7" r:id="rId2" xr:uid="{A56BFFB3-8537-41AA-B5B3-4AFE80BB6BCD}"/>
+    <hyperlink ref="M8" r:id="rId3" xr:uid="{B64D402A-B484-4144-8312-0FDE3DF5F509}"/>
+    <hyperlink ref="M9" r:id="rId4" xr:uid="{B34D14A9-F987-4856-BF9C-E9D9A5B5C082}"/>
+    <hyperlink ref="M10" r:id="rId5" xr:uid="{BA7E6B27-04F0-4BEC-852C-8741D372FFCB}"/>
+    <hyperlink ref="M11" r:id="rId6" xr:uid="{E7D11055-31AF-4C5E-B605-A34C8824C71C}"/>
+    <hyperlink ref="M12" r:id="rId7" xr:uid="{E2316527-8806-4D28-8555-0EC241B6EBAA}"/>
+    <hyperlink ref="M13" r:id="rId8" xr:uid="{98180E1C-56E1-47A9-862D-06A6E326225E}"/>
+    <hyperlink ref="M14" r:id="rId9" xr:uid="{BE2D79E9-9907-4771-A5C7-652CD60C7338}"/>
+    <hyperlink ref="M15" r:id="rId10" xr:uid="{71658984-1069-4366-AF52-ED6DF010411E}"/>
+    <hyperlink ref="M16" r:id="rId11" xr:uid="{9B5E13FC-832E-49A1-B8BE-25F0BD96BB60}"/>
+    <hyperlink ref="M17" r:id="rId12" xr:uid="{3B60CE4A-6EDA-44DC-BC9E-6E41349EA2A5}"/>
+    <hyperlink ref="M18" r:id="rId13" xr:uid="{CC2862CA-4337-4464-B86D-BC24848E791D}"/>
+    <hyperlink ref="K22" r:id="rId14" xr:uid="{4BA94CCB-1447-43FD-BE3D-003948777EB5}"/>
+    <hyperlink ref="M19" r:id="rId15" xr:uid="{EC0923A1-0D4F-4F50-89FE-63380CF14956}"/>
+    <hyperlink ref="K25" r:id="rId16" xr:uid="{EB6EF532-E0D3-44FC-AF1D-D3E994D3C858}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806DAB8C-F706-4B34-9C88-A9AC9F2843DB}">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -785,9 +2596,10 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,13 +2607,15 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="70" t="s">
+        <v>95</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -820,240 +2634,267 @@
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>COUNTIF($B$3:$B$15,G2)</f>
         <v>2</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="104">
+        <f>SUMIF($B$3:$B$15,G2,$D$3:$D$15)</f>
+        <v>920</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45390</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>800</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H10" si="0">COUNTIF($B$3:$B$15,G3)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="104">
+        <f t="shared" ref="I3:I10" si="1">SUMIF($B$3:$B$15,G3,$D$3:$D$15)</f>
+        <v>14000</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45420</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>430</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="104">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45512</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3000</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="104">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45573</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1000</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="104">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>45634</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>500</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="104">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>120</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="104">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>900</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="104">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>8000</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="104">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>2000</v>
       </c>
       <c r="E11" s="1"/>
@@ -1066,16 +2907,16 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>500</v>
       </c>
       <c r="E12" s="1"/>
@@ -1088,16 +2929,16 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>6000</v>
       </c>
       <c r="E13" s="1"/>
@@ -1110,16 +2951,16 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>320</v>
       </c>
       <c r="E14" s="1"/>
@@ -1132,16 +2973,16 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>100</v>
       </c>
       <c r="E15" s="1"/>
@@ -1156,7 +2997,7 @@
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1209,11 +3050,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3E86C3-1973-48FF-898E-541ABBCA17F5}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="3" tint="0.499984740745262"/>
+  </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1224,9 +3070,10 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25">
+    <row r="1" spans="1:12" ht="33.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1234,13 +3081,15 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="70" t="s">
+        <v>95</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1259,235 +3108,250 @@
         <v>4</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <f>COUNTIF($B$3:$B$15,G2)</f>
         <v>3</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="104">
+        <f>SUMIF($B$3:$B$15,G2,$D$3:$D$15)</f>
+        <v>8500</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>45451</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5000</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <f t="shared" ref="H3:H6" si="0">COUNTIF($B$3:$B$15,G3)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="104">
+        <f t="shared" ref="I3:I10" si="1">SUMIF($B$3:$B$15,G3,$D$3:$D$15)</f>
+        <v>3700</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>45543</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>500</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="104">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>45604</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1000</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="104">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>45634</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>500</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="104">
+        <f t="shared" si="1"/>
+        <v>3700</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>45634</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>100</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="104"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1500</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="104"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>3500</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="104"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1900</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="104"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>100</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="1">
@@ -1503,13 +3367,13 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="1">
@@ -1525,13 +3389,13 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="1">
@@ -1547,13 +3411,13 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="1">
@@ -1636,158 +3500,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED8C148-0BB8-467F-9E13-41DAE8773874}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6">
-        <f>COUNTIF($B$4:$B$13,D6)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E9" si="0">COUNTIF($B$4:$B$13,D7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/TaiChinhGiaDinh.xlsx
+++ b/TaiChinhGiaDinh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TuBeo5866\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620A4E0A-74F8-47F8-9F08-95E9234F3822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B747A9E4-02A9-4860-A2FE-46424C1230BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="842" xr2:uid="{7F960065-4013-43CF-8739-47F0A6A54CFF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
   <si>
     <t>Chi tiêu</t>
   </si>
@@ -462,6 +462,18 @@
   <si>
     <t>MY INFO</t>
   </si>
+  <si>
+    <t>TO AVOID THESE PROJECTS BEING STOLEN OR COPIED, I HAVE ADDED MY COPYRIGHTS AND SOME RULES TO INCREASE MY SECURITY AND MY PRIVACY</t>
+  </si>
+  <si>
+    <t>ĐỂ TRÁNH CÁC DỰ ÁN NÀY BỊ ĐÁNH CẮP HOẶC SAO CHÉP, TÔI ĐÃ THÊM BẢN QUYỀN VÀ MỘT SỐ LUẬT ĐỂ TĂNG CƯỜNG BẢO MẬT VÀ QUYỀN RIÊNG TƯ CỦA TÔI</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>https://www.threads.net/@tubeo5866</t>
+  </si>
 </sst>
 </file>
 
@@ -470,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -581,8 +593,22 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +746,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -885,10 +923,72 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -896,10 +996,8 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -909,34 +1007,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -949,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -993,124 +1067,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1119,22 +1115,7 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,85 +1127,209 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1569,10 +1674,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFEE0000"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1586,990 +1691,1058 @@
     <col min="16" max="16" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A1" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A2" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" customHeight="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="105" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="73"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="75"/>
-      <c r="B2" s="21" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="42"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="43"/>
+      <c r="B5" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="97" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="73"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="75"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="98" t="s">
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="42"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="43"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="73"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="22" t="s">
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="42"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="73"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="76" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="42"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1">
+      <c r="A8" s="43"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="76" t="s">
+      <c r="L8" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="77" t="s">
+      <c r="M8" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="73"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="75"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="25" t="s">
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="42"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="43"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M9" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="73"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="75"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="27" t="s">
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="42"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="43"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M10" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="73"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="75"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="30" t="s">
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="42"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="43"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M11" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="73"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="75"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="34" t="s">
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="42"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="43"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M12" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="73"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="75"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="37" t="s">
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="42"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="43"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L13" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="73"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="75"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="42" t="s">
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="42"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="43"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="48" t="s">
+      <c r="M14" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="73"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="75"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="43" t="s">
+      <c r="N14" s="76"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="42"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="43"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="L12" s="47" t="s">
+      <c r="L15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M12" s="49" t="s">
+      <c r="M15" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="44"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="73"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="75"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="50" t="s">
+      <c r="N15" s="79"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="42"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="43"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L16" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="M13" s="52" t="s">
+      <c r="M16" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="73"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="75"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="53" t="s">
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="42"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="43"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L17" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="55" t="s">
+      <c r="M17" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="73"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="75"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="30" t="s">
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="42"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="43"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="L18" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M18" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="73"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="75"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="56" t="s">
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="42"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="43"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="56" t="s">
+      <c r="L19" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M19" s="66" t="s">
         <v>83</v>
-      </c>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="73"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="75"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="73"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="75"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="M18" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="N18" s="63"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="73"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="75"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="68" t="s">
-        <v>90</v>
       </c>
       <c r="N19" s="67"/>
       <c r="O19" s="67"/>
-      <c r="P19" s="73"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="73"/>
+      <c r="P19" s="42"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="43"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="75"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="94" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="42"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="43"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="42"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="43"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="109" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="110" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="42"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A24" s="43"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="101"/>
+      <c r="P24" s="42"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1">
+      <c r="A25" s="43"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="101" t="s">
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="O21" s="102"/>
-      <c r="P21" s="73"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="91" t="s">
+      <c r="O25" s="112"/>
+      <c r="P25" s="42"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1">
+      <c r="A26" s="43"/>
+      <c r="B26" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="L22" s="92"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="99" t="s">
+      <c r="L26" s="106"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="O22" s="100"/>
-      <c r="P22" s="73"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="73"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="94" t="s">
+      <c r="O26" s="114"/>
+      <c r="P26" s="42"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1">
+      <c r="A27" s="43"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="103" t="s">
+      <c r="L27" s="99"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="O24" s="65"/>
-      <c r="P24" s="73"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="91" t="s">
+      <c r="O27" s="116"/>
+      <c r="P27" s="42"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A28" s="43"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="L25" s="92"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="99" t="s">
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="O25" s="100"/>
-      <c r="P25" s="73"/>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="75"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="73"/>
-    </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="75"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="73"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="75"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="73"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="75"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="79" t="s">
-        <v>119</v>
-      </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="73"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="75"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="73"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
-      <c r="P30" s="73"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="75"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="N31" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="84" t="s">
-        <v>104</v>
-      </c>
-      <c r="P31" s="73"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="75"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="80" t="s">
-        <v>100</v>
-      </c>
-      <c r="L32" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="N32" s="81"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="73"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="75"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="73"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="20"/>
-      <c r="P33" s="73"/>
+      <c r="P33" s="42"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="75"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="L34" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="M34" s="87"/>
-      <c r="N34" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="O34" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="P34" s="73"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" s="42"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="75"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="M35" s="87"/>
-      <c r="N35" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="O35" s="90"/>
-      <c r="P35" s="73"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N35" s="61"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="42"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="75"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="73"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="73"/>
+      <c r="P36" s="42"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="75"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="73"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="93"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="93"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="O37" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="P37" s="42"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="75"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="73"/>
-      <c r="K38" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="73"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L38" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="51"/>
+      <c r="N38" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="O38" s="52"/>
+      <c r="P38" s="42"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="75"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="73"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
       <c r="O39" s="20"/>
-      <c r="P39" s="73"/>
+      <c r="P39" s="42"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="75"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="73"/>
-      <c r="K40" s="89" t="s">
+      <c r="A40" s="43"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="93"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="93"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="42"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="43"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="93"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="L41" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="53"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="42"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="43"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="93"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="42"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="43"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="93"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="93"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="93"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="L40" s="83" t="s">
+      <c r="L43" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="73"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="75"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="73"/>
-      <c r="K41" s="89" t="s">
+      <c r="M43" s="53"/>
+      <c r="N43" s="53"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="42"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="43"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="73"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="75"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
+      <c r="L44" s="53"/>
+      <c r="M44" s="53"/>
+      <c r="N44" s="53"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="42"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L40:O41"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
+  <mergeCells count="45">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="B7:I24"/>
+    <mergeCell ref="B26:I44"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="M9:O9"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
+    <mergeCell ref="L43:O44"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K31:O31"/>
+    <mergeCell ref="K32:O32"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="O37:O38"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M21:O21"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B4:I21"/>
-    <mergeCell ref="B23:I41"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M6" r:id="rId1" xr:uid="{45D1B3AD-5B21-4686-9398-2A8231314A1C}"/>
-    <hyperlink ref="M7" r:id="rId2" xr:uid="{A56BFFB3-8537-41AA-B5B3-4AFE80BB6BCD}"/>
-    <hyperlink ref="M8" r:id="rId3" xr:uid="{B64D402A-B484-4144-8312-0FDE3DF5F509}"/>
-    <hyperlink ref="M9" r:id="rId4" xr:uid="{B34D14A9-F987-4856-BF9C-E9D9A5B5C082}"/>
-    <hyperlink ref="M10" r:id="rId5" xr:uid="{BA7E6B27-04F0-4BEC-852C-8741D372FFCB}"/>
-    <hyperlink ref="M11" r:id="rId6" xr:uid="{E7D11055-31AF-4C5E-B605-A34C8824C71C}"/>
-    <hyperlink ref="M12" r:id="rId7" xr:uid="{E2316527-8806-4D28-8555-0EC241B6EBAA}"/>
-    <hyperlink ref="M13" r:id="rId8" xr:uid="{98180E1C-56E1-47A9-862D-06A6E326225E}"/>
-    <hyperlink ref="M14" r:id="rId9" xr:uid="{BE2D79E9-9907-4771-A5C7-652CD60C7338}"/>
-    <hyperlink ref="M15" r:id="rId10" xr:uid="{71658984-1069-4366-AF52-ED6DF010411E}"/>
-    <hyperlink ref="M16" r:id="rId11" xr:uid="{9B5E13FC-832E-49A1-B8BE-25F0BD96BB60}"/>
-    <hyperlink ref="M17" r:id="rId12" xr:uid="{3B60CE4A-6EDA-44DC-BC9E-6E41349EA2A5}"/>
-    <hyperlink ref="M18" r:id="rId13" xr:uid="{CC2862CA-4337-4464-B86D-BC24848E791D}"/>
-    <hyperlink ref="K22" r:id="rId14" xr:uid="{4BA94CCB-1447-43FD-BE3D-003948777EB5}"/>
-    <hyperlink ref="M19" r:id="rId15" xr:uid="{EC0923A1-0D4F-4F50-89FE-63380CF14956}"/>
-    <hyperlink ref="K25" r:id="rId16" xr:uid="{EB6EF532-E0D3-44FC-AF1D-D3E994D3C858}"/>
+    <hyperlink ref="M9" r:id="rId1" xr:uid="{45D1B3AD-5B21-4686-9398-2A8231314A1C}"/>
+    <hyperlink ref="M10" r:id="rId2" xr:uid="{A56BFFB3-8537-41AA-B5B3-4AFE80BB6BCD}"/>
+    <hyperlink ref="M11" r:id="rId3" xr:uid="{B64D402A-B484-4144-8312-0FDE3DF5F509}"/>
+    <hyperlink ref="M12" r:id="rId4" xr:uid="{B34D14A9-F987-4856-BF9C-E9D9A5B5C082}"/>
+    <hyperlink ref="M13" r:id="rId5" xr:uid="{BA7E6B27-04F0-4BEC-852C-8741D372FFCB}"/>
+    <hyperlink ref="M14" r:id="rId6" xr:uid="{E7D11055-31AF-4C5E-B605-A34C8824C71C}"/>
+    <hyperlink ref="M15" r:id="rId7" xr:uid="{E2316527-8806-4D28-8555-0EC241B6EBAA}"/>
+    <hyperlink ref="M16" r:id="rId8" xr:uid="{98180E1C-56E1-47A9-862D-06A6E326225E}"/>
+    <hyperlink ref="M17" r:id="rId9" xr:uid="{BE2D79E9-9907-4771-A5C7-652CD60C7338}"/>
+    <hyperlink ref="M18" r:id="rId10" xr:uid="{71658984-1069-4366-AF52-ED6DF010411E}"/>
+    <hyperlink ref="M19" r:id="rId11" xr:uid="{9B5E13FC-832E-49A1-B8BE-25F0BD96BB60}"/>
+    <hyperlink ref="M20" r:id="rId12" xr:uid="{3B60CE4A-6EDA-44DC-BC9E-6E41349EA2A5}"/>
+    <hyperlink ref="M21" r:id="rId13" xr:uid="{CC2862CA-4337-4464-B86D-BC24848E791D}"/>
+    <hyperlink ref="M22" r:id="rId14" xr:uid="{EC0923A1-0D4F-4F50-89FE-63380CF14956}"/>
+    <hyperlink ref="K28" r:id="rId15" xr:uid="{EB6EF532-E0D3-44FC-AF1D-D3E994D3C858}"/>
+    <hyperlink ref="K26" r:id="rId16" xr:uid="{08E29E7E-BA9A-4B3C-9BEF-5A8D043DE007}"/>
+    <hyperlink ref="M23" r:id="rId17" xr:uid="{66292757-47BA-46EE-9560-B09CA48792F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2607,13 +2780,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="39" t="s">
         <v>95</v>
       </c>
       <c r="J1" s="1"/>
@@ -2641,7 +2814,7 @@
         <f>COUNTIF($B$3:$B$15,G2)</f>
         <v>2</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="49">
         <f>SUMIF($B$3:$B$15,G2,$D$3:$D$15)</f>
         <v>920</v>
       </c>
@@ -2670,7 +2843,7 @@
         <f t="shared" ref="H3:H10" si="0">COUNTIF($B$3:$B$15,G3)</f>
         <v>2</v>
       </c>
-      <c r="I3" s="104">
+      <c r="I3" s="49">
         <f t="shared" ref="I3:I10" si="1">SUMIF($B$3:$B$15,G3,$D$3:$D$15)</f>
         <v>14000</v>
       </c>
@@ -2699,7 +2872,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="49">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
@@ -2728,7 +2901,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="49">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
@@ -2757,7 +2930,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="49">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
@@ -2786,7 +2959,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="104">
+      <c r="I7" s="49">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -2816,7 +2989,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="104">
+      <c r="I8" s="49">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
@@ -2846,7 +3019,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="104">
+      <c r="I9" s="49">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
@@ -2876,7 +3049,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="49">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
@@ -3081,13 +3254,13 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="39" t="s">
         <v>95</v>
       </c>
       <c r="J1" s="1"/>
@@ -3115,7 +3288,7 @@
         <f>COUNTIF($B$3:$B$15,G2)</f>
         <v>3</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="49">
         <f>SUMIF($B$3:$B$15,G2,$D$3:$D$15)</f>
         <v>8500</v>
       </c>
@@ -3144,8 +3317,8 @@
         <f t="shared" ref="H3:H6" si="0">COUNTIF($B$3:$B$15,G3)</f>
         <v>3</v>
       </c>
-      <c r="I3" s="104">
-        <f t="shared" ref="I3:I10" si="1">SUMIF($B$3:$B$15,G3,$D$3:$D$15)</f>
+      <c r="I3" s="49">
+        <f t="shared" ref="I3:I6" si="1">SUMIF($B$3:$B$15,G3,$D$3:$D$15)</f>
         <v>3700</v>
       </c>
       <c r="J3" s="1"/>
@@ -3173,7 +3346,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="49">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
@@ -3202,7 +3375,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I5" s="104">
+      <c r="I5" s="49">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
@@ -3231,7 +3404,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I6" s="104">
+      <c r="I6" s="49">
         <f t="shared" si="1"/>
         <v>3700</v>
       </c>
@@ -3255,7 +3428,7 @@
       <c r="E7" s="1"/>
       <c r="G7" s="6"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="104"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3276,7 +3449,7 @@
       <c r="E8" s="1"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="104"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3297,7 +3470,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="104"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -3318,7 +3491,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="104"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
